--- a/split_data/input/all_cities/Kaohsiung.xlsx
+++ b/split_data/input/all_cities/Kaohsiung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2909,16 +2909,16 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>仁雄路與澄仁路口</t>
+          <t>澄觀路一段(新庄路以西150公尺處)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -2938,16 +2938,16 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>鳳仁路與成功路口</t>
+          <t>仁雄路與澄仁路口</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -2967,12 +2967,12 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>水管路與澄觀路口</t>
+          <t>鳳仁路與成功路口</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -2996,12 +2996,12 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>鳳仁路183線2.45公里</t>
+          <t>水管路與澄觀路口</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3025,18 +3025,16 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>高楠公路與八德二路口</t>
+          <t>鳳仁路183線2.45公里</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>60</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3056,7 +3054,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>澄觀路與仁林路口</t>
+          <t>高楠公路與八德二路口</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3064,8 +3062,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v>60</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3085,7 +3085,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>澄觀路與鳳仁路口</t>
+          <t>澄觀路與仁林路口</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3114,7 +3114,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>鳳仁路與竹門巷口</t>
+          <t>澄觀路與鳳仁路口</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3122,10 +3122,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+      <c r="H92" t="n">
+        <v>60</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3145,7 +3143,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>水管路與鳳仁路</t>
+          <t>鳳仁路與竹門巷口</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3153,8 +3151,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v>40</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3174,7 +3174,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>高楠公路23號前</t>
+          <t>水管路與鳳仁路</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>內門區</t>
+          <t>仁武區</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3203,16 +3203,16 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>旗文路(台三線401.88K)</t>
+          <t>高楠公路23號前</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>六龜區</t>
+          <t>內門區</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3232,7 +3232,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>旗六公路新威國小前</t>
+          <t>旗文路(台三線401.88K)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3261,12 +3261,12 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>台28線茂林國家風景區管理處前路口</t>
+          <t>旗六公路新威國小前</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3290,12 +3290,12 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>三民路37號旁(台28線45.7K)</t>
+          <t>台28線茂林國家風景區管理處前路口</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>左營區</t>
+          <t>六龜區</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -3319,12 +3319,12 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>博愛三路與崇德路口</t>
+          <t>三民路37號旁(台28線45.7K)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3348,7 +3348,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>新庄仔路與自由二路口</t>
+          <t>博愛三路與崇德路口</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3377,7 +3377,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>華夏路與新庄仔路口</t>
+          <t>新庄仔路與自由二路口</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3406,7 +3406,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>博愛三路與文自路口</t>
+          <t>華夏路與新庄仔路口</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3435,16 +3435,16 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>大中二路與華夏路口</t>
+          <t>博愛三路與文自路口</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3464,16 +3464,16 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>華夏路337巷口</t>
+          <t>大中二路與華夏路口</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3493,16 +3493,16 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>大中高架道路華夏匝道口</t>
+          <t>華夏路337巷口</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3522,7 +3522,7 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>大中高架道路文川匝道口</t>
+          <t>大中高架道路華夏匝道口</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3551,16 +3551,16 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>高鐵路與曾子路口</t>
+          <t>大中高架道路文川匝道口</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -3580,7 +3580,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>翠華路與明潭路口</t>
+          <t>高鐵路與曾子路口</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -3609,7 +3609,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>博愛二路與裕誠路口</t>
+          <t>翠華路與明潭路口</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -3638,7 +3638,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>高鐵路與大中二路口</t>
+          <t>博愛二路與裕誠路口</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3667,7 +3667,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>民族一路與大中一路</t>
+          <t>高鐵路與大中二路口</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3675,10 +3675,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+      <c r="H111" t="n">
+        <v>50</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -3698,17 +3696,17 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>博愛二路與新庄仔路口/新莊一路</t>
+          <t>民族一路與大中一路</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -3729,16 +3727,18 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>介壽路與先鋒路口</t>
+          <t>博愛二路與新庄仔路口/新莊一路</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>50</v>
+          <t>闖紅燈兼路口科技執法監測</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
@@ -3758,7 +3758,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>翠華路與站前南路</t>
+          <t>介壽路與先鋒路口</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -3787,7 +3787,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>翠華路與華榮路口</t>
+          <t>翠華路與站前南路</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -3795,10 +3795,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+      <c r="H115" t="n">
+        <v>50</v>
       </c>
       <c r="I115" t="inlineStr"/>
     </row>
@@ -3818,7 +3816,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>翠華路與崇德路口</t>
+          <t>翠華路與華榮路口</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -3826,8 +3824,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H116" t="n">
-        <v>50</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I116" t="inlineStr"/>
     </row>
@@ -3847,7 +3847,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>大中二路/文自路</t>
+          <t>翠華路與崇德路口</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -3876,7 +3876,7 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>新莊一路/新榮街口</t>
+          <t>大中二路/文自路</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -3905,12 +3905,12 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>軍校路國軍高雄總醫院左營分院前</t>
+          <t>新莊一路/新榮街口</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -3934,18 +3934,16 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>翠華路/勝利路</t>
+          <t>軍校路國軍高雄總醫院左營分院前</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>闖紅燈兼超速</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>50</v>
       </c>
       <c r="I120" t="inlineStr"/>
     </row>
@@ -3965,16 +3963,18 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>左營高架橋(中華陸橋)往北下橋處</t>
+          <t>翠華路/勝利路</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>超速</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>40</v>
+          <t>闖紅燈兼路口科技執法監測</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I121" t="inlineStr"/>
     </row>
@@ -3994,7 +3994,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>先鋒路293號對面</t>
+          <t>左營高架橋(中華陸橋)往北下橋處</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>永安區</t>
+          <t>左營區</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4023,7 +4023,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>台17線(保安路)201.2K處</t>
+          <t>先鋒路293號對面</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I123" t="inlineStr"/>
     </row>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>田寮區</t>
+          <t>永安區</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4052,7 +4052,7 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>台28線鹿埔路19號前</t>
+          <t>台17線(保安路)201.2K處</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I124" t="inlineStr"/>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>古亭路(台28線)18號以東67.5公尺處(往阿蓮方向)</t>
+          <t>台28線鹿埔路19號前</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>杉林區</t>
+          <t>田寮區</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>市道181線(杉美路1段)2K+675</t>
+          <t>古亭路(台28線)18號以東67.5公尺處(往阿蓮方向)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4139,7 +4139,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>台29線53K+207</t>
+          <t>市道181線(杉美路1段)2K+675</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I127" t="inlineStr"/>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>岡山區</t>
+          <t>杉林區</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4168,12 +4168,12 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>嘉新東路與聖森路口</t>
+          <t>台29線53K+207</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4197,12 +4197,12 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>介壽東路與和平路口</t>
+          <t>嘉新東路與聖森路口</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4226,16 +4226,16 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>嘉峰路高鐵橋下</t>
+          <t>介壽東路與和平路口</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I130" t="inlineStr"/>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>大德一路與中山北路</t>
+          <t>嘉峰路高鐵橋下</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4284,7 +4284,7 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>介壽東路與岡燕路</t>
+          <t>大德一路與中山北路</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4292,10 +4292,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+      <c r="H132" t="n">
+        <v>50</v>
       </c>
       <c r="I132" t="inlineStr"/>
     </row>
@@ -4315,7 +4313,7 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>聖森路/岡燕路口</t>
+          <t>介壽東路與岡燕路</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4323,8 +4321,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H133" t="n">
-        <v>50</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="I133" t="inlineStr"/>
     </row>
@@ -4344,12 +4344,12 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>國軒路/鵬程東二路口</t>
+          <t>聖森路/岡燕路口</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4373,7 +4373,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>聖森路與聖森路160巷口</t>
+          <t>國軒路/鵬程東二路口</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4402,7 +4402,7 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>嘉新東路與新庄路口</t>
+          <t>聖森路與聖森路160巷口</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4431,7 +4431,7 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>大莊路60巷90號對面</t>
+          <t>嘉新東路與新庄路口</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>林園區</t>
+          <t>岡山區</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4460,16 +4460,16 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>沿海路二段與林園南路口</t>
+          <t>大莊路60巷90號對面</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I138" t="inlineStr"/>
     </row>
@@ -4489,12 +4489,12 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>台25線14.5公里處</t>
+          <t>沿海路二段與林園南路口</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4518,16 +4518,16 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>中門路與南星路口(快車道)</t>
+          <t>台25線14.5公里處</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I140" t="inlineStr"/>
     </row>
@@ -4547,7 +4547,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>中門路與南星路口(慢車道)</t>
+          <t>中門路與南星路口(快車道)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I141" t="inlineStr"/>
     </row>
@@ -4576,16 +4576,16 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>鳳林路三段與潭頭路口</t>
+          <t>中門路與南星路口(慢車道)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I142" t="inlineStr"/>
     </row>
@@ -4605,12 +4605,12 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>台29線108.4公里處</t>
+          <t>鳳林路三段與潭頭路口</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>阿蓮區</t>
+          <t>林園區</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -4634,7 +4634,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>復安路與玉庫路口(台19甲線往阿蓮市區)</t>
+          <t>台29線108.4公里處</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I144" t="inlineStr"/>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>前金區</t>
+          <t>林園區</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -4663,7 +4663,7 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>中華三路與民生二路口</t>
+          <t>鳳林路二段與林園北路口</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I145" t="inlineStr"/>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>前鎮區</t>
+          <t>阿蓮區</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -4692,12 +4692,12 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>一心一路與和平二路口</t>
+          <t>復安路與玉庫路口(台19甲線往阿蓮市區)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>前鎮區</t>
+          <t>前金區</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -4721,7 +4721,7 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>一心一路與光華二路口</t>
+          <t>中華三路與民生二路口</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -4750,7 +4750,7 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>保泰路與瑞隆路口</t>
+          <t>一心一路與和平二路口</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -4779,7 +4779,7 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>中山二路與文橫三路口</t>
+          <t>一心一路與光華二路口</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I149" t="inlineStr"/>
     </row>
@@ -4808,7 +4808,7 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>中山三路與正勤路口</t>
+          <t>保泰路與瑞隆路口</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -4816,10 +4816,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+      <c r="H150" t="n">
+        <v>50</v>
       </c>
       <c r="I150" t="inlineStr"/>
     </row>
@@ -4839,7 +4837,7 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>凱旋四路與凱旋四路424巷口</t>
+          <t>中山二路與文橫三路口</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -4848,7 +4846,7 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I151" t="inlineStr"/>
     </row>
@@ -4868,7 +4866,7 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>成功二路、興發路口</t>
+          <t>中山三路與正勤路口</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -4876,8 +4874,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H152" t="n">
-        <v>50</v>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="I152" t="inlineStr"/>
     </row>
@@ -4897,16 +4897,16 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>中華五路與復興三路口</t>
+          <t>凱旋四路與凱旋四路424巷口</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I153" t="inlineStr"/>
     </row>
@@ -4926,16 +4926,16 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>中山四路與中平路口</t>
+          <t>成功二路、興發路口</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I154" t="inlineStr"/>
     </row>
@@ -4955,16 +4955,16 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>中山三路與凱旋四路</t>
+          <t>中華五路與復興三路口</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I155" t="inlineStr"/>
     </row>
@@ -4984,16 +4984,16 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>中山四路與金福路口</t>
+          <t>中山四路與中平路口</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I156" t="inlineStr"/>
     </row>
@@ -5013,16 +5013,16 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>中山四路與中安路口</t>
+          <t>中山三路與凱旋四路</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I157" t="inlineStr"/>
     </row>
@@ -5042,16 +5042,16 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>中山四路與鎮海路口</t>
+          <t>中山四路與金福路口</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I158" t="inlineStr"/>
     </row>
@@ -5071,12 +5071,12 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>三多二路與桂林街口</t>
+          <t>中山四路與中安路口</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5100,16 +5100,16 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>凱旋四路與籬仔內路口</t>
+          <t>中山四路與鎮海路口</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I160" t="inlineStr"/>
     </row>
@@ -5129,7 +5129,7 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>草衙二路與金福路口</t>
+          <t>三多二路與桂林街口</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I161" t="inlineStr"/>
     </row>
@@ -5158,7 +5158,7 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>成功二路與舊凱旋四路口</t>
+          <t>凱旋四路與籬仔內路口</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5187,7 +5187,7 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>凱旋四路與鎮興路口</t>
+          <t>草衙二路與金福路口</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I163" t="inlineStr"/>
     </row>
@@ -5216,7 +5216,7 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>舊凱旋四路與鎮興路口</t>
+          <t>成功二路與舊凱旋四路口</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5245,7 +5245,7 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>舊凱旋四路與前鎮街口</t>
+          <t>凱旋四路與鎮興路口</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -5274,16 +5274,16 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>新生高架道路0.82K</t>
+          <t>舊凱旋四路與鎮興路口</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I166" t="inlineStr"/>
     </row>
@@ -5303,7 +5303,7 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>凱旋四路與前鎮街口(輕軌沿線)</t>
+          <t>舊凱旋四路與前鎮街口</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -5311,10 +5311,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+      <c r="H167" t="n">
+        <v>50</v>
       </c>
       <c r="I167" t="inlineStr"/>
     </row>
@@ -5334,18 +5332,16 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>新生路與金福路口</t>
+          <t>新生高架道路0.82K</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>60</v>
       </c>
       <c r="I168" t="inlineStr"/>
     </row>
@@ -5365,12 +5361,12 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>新生路與金福路口</t>
+          <t>凱旋四路與前鎮街口(輕軌沿線)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -5396,16 +5392,18 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>高速公路接金福路之高架聯絡道南下（離金福路出口900公尺處)</t>
+          <t>新生路與金福路口</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>超速</t>
-        </is>
-      </c>
-      <c r="H170" t="n">
-        <v>40</v>
+          <t>闖紅燈</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I170" t="inlineStr"/>
     </row>
@@ -5425,16 +5423,18 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>高速公路接金福路之高架聯絡道北上（離金福路出口500公尺處)</t>
+          <t>新生路與金福路口</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>超速</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>40</v>
+          <t>闖紅燈兼路口科技執法監測</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I171" t="inlineStr"/>
     </row>
@@ -5454,16 +5454,16 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>班超路瑞祥高中前</t>
+          <t>高速公路接金福路之高架聯絡道南下（離金福路出口900公尺處)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I172" t="inlineStr"/>
     </row>
@@ -5483,16 +5483,16 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>凱旋三路/二聖一路(輕軌沿線)</t>
+          <t>高速公路接金福路之高架聯絡道北上（離金福路出口500公尺處)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I173" t="inlineStr"/>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>漁港路/草衙一路</t>
+          <t>班超路瑞祥高中前</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -5541,18 +5541,16 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>中山三路與光華三路口</t>
+          <t>凱旋三路/二聖一路(輕軌沿線)</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>闖紅燈</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>50</v>
       </c>
       <c r="I175" t="inlineStr"/>
     </row>
@@ -5572,7 +5570,7 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>一心二路/復興三路</t>
+          <t>漁港路/草衙一路</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -5593,7 +5591,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>美濃區</t>
+          <t>前鎮區</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -5601,16 +5599,18 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>美興街232號前(月光山隧道前方)</t>
+          <t>中山三路與光華三路口</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>超速</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>50</v>
+          <t>闖紅燈兼路口科技執法監測</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="I177" t="inlineStr"/>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>美濃區</t>
+          <t>前鎮區</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -5630,7 +5630,7 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>中山路二段359巷口</t>
+          <t>一心二路/復興三路</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -5639,7 +5639,7 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I178" t="inlineStr"/>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>復興街一段480號前</t>
+          <t>美興街232號前(月光山隧道前方)</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -5667,10 +5667,8 @@
           <t>超速</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+      <c r="H179" t="n">
+        <v>50</v>
       </c>
       <c r="I179" t="inlineStr"/>
     </row>
@@ -5690,12 +5688,12 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>中華路(台28線)與獅山街口</t>
+          <t>中山路二段359巷口</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -5719,7 +5717,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>台28線(中興路一段)37K+412</t>
+          <t>復興街一段480號前</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -5727,8 +5725,10 @@
           <t>超速</t>
         </is>
       </c>
-      <c r="H181" t="n">
-        <v>50</v>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I181" t="inlineStr"/>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>苓雅區</t>
+          <t>美濃區</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -5748,16 +5748,16 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>建國路與武廟路口</t>
+          <t>中華路(台28線)與獅山街口</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I182" t="inlineStr"/>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>苓雅區</t>
+          <t>美濃區</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -5777,12 +5777,12 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>五福三路與英雄路口</t>
+          <t>台28線(中興路一段)37K+412</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -5806,7 +5806,7 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>建國一路與正義路口</t>
+          <t>建國路與武廟路口</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -5835,12 +5835,12 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>中山二路361號前</t>
+          <t>五福三路與英雄路口</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -5864,12 +5864,12 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>中山二路432號前</t>
+          <t>建國一路與正義路口</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -5893,12 +5893,12 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>武營路與三多一路口</t>
+          <t>中山二路361號前</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -5922,12 +5922,12 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>五福一路與凱旋二路口</t>
+          <t>中山二路432號前</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -5951,12 +5951,12 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>建國一路與中山高涵洞東側</t>
+          <t>武營路與三多一路口</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>違左</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -5980,12 +5980,12 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>中正一路國軍高雄總醫院旁</t>
+          <t>五福一路與凱旋二路口</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -6009,12 +6009,12 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>中正地下道(東向西出口)(超速)</t>
+          <t>建國一路與中山高涵洞東側</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>違左</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -6038,7 +6038,7 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>中正地下道(西向東出口)(超速)</t>
+          <t>中正一路國軍高雄總醫院旁</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -6067,12 +6067,12 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>五福一路與和平一路口</t>
+          <t>中正地下道(東向西出口)(超速)</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -6096,18 +6096,16 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>中正一路與高速公路</t>
+          <t>中正地下道(西向東出口)(超速)</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>50</v>
       </c>
       <c r="I194" t="inlineStr"/>
     </row>
@@ -6127,7 +6125,7 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>三多一路與建軍路口</t>
+          <t>五福一路與和平一路口</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6156,7 +6154,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>三多二路與凱旋二路口</t>
+          <t>中正一路與高速公路</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6164,8 +6162,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H196" t="n">
-        <v>50</v>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I196" t="inlineStr"/>
     </row>
@@ -6185,7 +6185,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>凱旋二路/四維一路</t>
+          <t>三多一路與建軍路口</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6214,7 +6214,7 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>輔仁路/中正一路</t>
+          <t>三多二路與凱旋二路口</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6243,12 +6243,12 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>中正一路/河南路/大順三路</t>
+          <t>凱旋二路/四維一路</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -6272,12 +6272,12 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>中華四路與四維四路口</t>
+          <t>中正一路/河南路/大順三路</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>茄萣區</t>
+          <t>苓雅區</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -6301,7 +6301,7 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>正順北路(高1-1線)與崎漏路口</t>
+          <t>中華四路與四維四路口</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="H201" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I201" t="inlineStr"/>
     </row>
@@ -6330,16 +6330,16 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>正順北路近正順東路口</t>
+          <t>正順北路(高1-1線)與崎漏路口</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I202" t="inlineStr"/>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>鳥松區</t>
+          <t>茄萣區</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -6359,7 +6359,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>神農路54-6號前</t>
+          <t>正順北路近正順東路口</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="H203" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I203" t="inlineStr"/>
     </row>
@@ -6388,7 +6388,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>大埤路32號自來水廠前</t>
+          <t>神農路54-6號前</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="H204" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I204" t="inlineStr"/>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>湖內區</t>
+          <t>鳥松區</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6417,16 +6417,16 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>中山路一段與284巷口</t>
+          <t>大埤路32號自來水廠前</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I205" t="inlineStr"/>
     </row>
@@ -6446,12 +6446,12 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>和平路與東方路口</t>
+          <t>中山路一段與284巷口</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>新興區</t>
+          <t>湖內區</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -6475,16 +6475,16 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>民生一路與仁愛二街口</t>
+          <t>和平路與東方路口</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I207" t="inlineStr"/>
     </row>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>楠梓區</t>
+          <t>新興區</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -6504,7 +6504,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>旗楠路與土庫一路口</t>
+          <t>民生一路與仁愛二街口</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -6533,7 +6533,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>德中路與大學二十九路口</t>
+          <t>旗楠路與土庫一路口</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="H209" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I209" t="inlineStr"/>
     </row>
@@ -6562,7 +6562,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>德民路與海專路口</t>
+          <t>德中路與大學二十九路口</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -6570,10 +6570,8 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+      <c r="H210" t="n">
+        <v>60</v>
       </c>
       <c r="I210" t="inlineStr"/>
     </row>
@@ -6593,7 +6591,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>旗楠路與常德路口</t>
+          <t>德民路與海專路口</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -6601,8 +6599,10 @@
           <t>闖紅燈</t>
         </is>
       </c>
-      <c r="H211" t="n">
-        <v>60</v>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="I211" t="inlineStr"/>
     </row>
@@ -6622,7 +6622,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>左楠路與後昌路口</t>
+          <t>旗楠路與常德路口</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6631,7 +6631,7 @@
         </is>
       </c>
       <c r="H212" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I212" t="inlineStr"/>
     </row>
@@ -6651,16 +6651,16 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>德中路與大學二十九路口</t>
+          <t>左楠路與後昌路口</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I213" t="inlineStr"/>
     </row>
@@ -6680,7 +6680,7 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>高楠公路1015-6號前</t>
+          <t>德中路與大學二十九路口</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -6709,16 +6709,16 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>加昌路與左楠路口</t>
+          <t>高楠公路1015-6號前</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I215" t="inlineStr"/>
     </row>
@@ -6738,16 +6738,16 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>高楠公路與德民路口</t>
+          <t>加昌路與左楠路口</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I216" t="inlineStr"/>
     </row>
@@ -6767,16 +6767,16 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>高楠公路與水管路口</t>
+          <t>高楠公路與德民路口</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I217" t="inlineStr"/>
     </row>
@@ -6796,7 +6796,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>德民路與德惠路口</t>
+          <t>高楠公路與水管路口</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="H218" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I218" t="inlineStr"/>
     </row>
@@ -6825,7 +6825,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>左楠路與外環西路</t>
+          <t>德民路與德惠路口</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -6854,7 +6854,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>楠陽路與鳳楠路口</t>
+          <t>左楠路與外環西路</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I220" t="inlineStr"/>
     </row>
@@ -6883,7 +6883,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>高楠公路金屬研發中心前(高楠公路1003巷口)</t>
+          <t>楠陽路與鳳楠路口</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -6912,16 +6912,16 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>加昌路/瑞屏路</t>
+          <t>高楠公路金屬研發中心前(高楠公路1003巷口)</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I222" t="inlineStr"/>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>路竹區</t>
+          <t>楠梓區</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -6941,16 +6941,16 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>環球路新生路口</t>
+          <t>加昌路/瑞屏路</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I223" t="inlineStr"/>
     </row>
@@ -6970,12 +6970,12 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>環球路與樹人醫事學校前路口</t>
+          <t>環球路新生路口</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -6999,7 +6999,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>復興路327巷口</t>
+          <t>環球路與樹人醫事學校前路口</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="H225" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I225" t="inlineStr"/>
     </row>
@@ -7028,12 +7028,12 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>中山路與國昌路口</t>
+          <t>復興路327巷口</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -7057,12 +7057,12 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>復興路與復興路1133巷口</t>
+          <t>中山路與國昌路口</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>鼓山區</t>
+          <t>路竹區</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -7086,12 +7086,12 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>明誠三路與南屏路口</t>
+          <t>復興路與復興路1133巷口</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -7115,16 +7115,16 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>中華一路與大順一路口</t>
+          <t>明誠三路與南屏路口</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I229" t="inlineStr"/>
     </row>
@@ -7144,12 +7144,12 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>中華一路與美術北三路口</t>
+          <t>中華一路與大順一路口</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -7173,16 +7173,16 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>鼓山三路與青峰路口</t>
+          <t>中華一路與美術北三路口</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I231" t="inlineStr"/>
     </row>
@@ -7202,16 +7202,16 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>蓬萊路32號前(輕軌沿線)</t>
+          <t>鼓山三路與青峰路口</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I232" t="inlineStr"/>
     </row>
@@ -7231,12 +7231,12 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>左營高架橋(中華陸橋)往南下橋處</t>
+          <t>蓬萊路32號前(輕軌沿線)</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -7260,16 +7260,16 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>青海路與美術東二路口</t>
+          <t>左營高架橋(中華陸橋)往南下橋處</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I234" t="inlineStr"/>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>旗山區</t>
+          <t>鼓山區</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -7289,12 +7289,12 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>台28線29.2公里處</t>
+          <t>青海路與美術東二路口</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -7318,16 +7318,16 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>延平一路與旗甲路一段路口</t>
+          <t>台28線29.2公里處</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I236" t="inlineStr"/>
     </row>
@@ -7347,16 +7347,16 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>旗南三路8號以北50公尺處</t>
+          <t>延平一路與旗甲路一段路口</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I237" t="inlineStr"/>
     </row>
@@ -7376,12 +7376,12 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>中華路與華中街口</t>
+          <t>旗南三路8號以北50公尺處</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -7405,16 +7405,16 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>旗甲路一段(台29線62K)圓潭橋前</t>
+          <t>中華路與華中街口</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I239" t="inlineStr"/>
     </row>
@@ -7434,7 +7434,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>台29線(旗南三路)75.3K處</t>
+          <t>旗甲路一段(台29線62K)圓潭橋前</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I240" t="inlineStr"/>
     </row>
@@ -7463,7 +7463,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>台29線(旗甲路三段)58K+274</t>
+          <t>台29線(旗南三路)75.3K處</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I241" t="inlineStr"/>
     </row>
@@ -7492,7 +7492,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>台3線(旗屏二路)與高92線口</t>
+          <t>台29線(旗甲路三段)58K+274</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I242" t="inlineStr"/>
     </row>
@@ -7521,16 +7521,16 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>中華路與延平一路口</t>
+          <t>台3線(旗屏二路)與高92線口</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I243" t="inlineStr"/>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>鳳山區</t>
+          <t>旗山區</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7550,16 +7550,16 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>鳳頂路與田中央路口</t>
+          <t>中華路與延平一路口</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I244" t="inlineStr"/>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>鳳山區</t>
+          <t>旗山區</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -7579,16 +7579,16 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>國泰路二段與五甲一路口</t>
+          <t>延平一路與中華路口</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I245" t="inlineStr"/>
     </row>
@@ -7608,7 +7608,7 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>建國路三段與青年路二段口</t>
+          <t>鳳頂路與田中央路口</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -7637,7 +7637,7 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>南華一路保安二街口</t>
+          <t>國泰路二段與五甲一路口</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I247" t="inlineStr"/>
     </row>
@@ -7666,7 +7666,7 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>建國路三段與澄清路口</t>
+          <t>建國路三段與青年路二段口</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I248" t="inlineStr"/>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>中山東路與光遠路口</t>
+          <t>南華一路保安二街口</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -7724,16 +7724,16 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>鳳頂路(台糖加油站對面)</t>
+          <t>建國路三段與澄清路口</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I250" t="inlineStr"/>
     </row>
@@ -7753,7 +7753,7 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>國泰路一段與鳳頂路口</t>
+          <t>中山東路與光遠路口</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -7782,12 +7782,12 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>南華一路與和成路</t>
+          <t>鳳頂路(台糖加油站對面)</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -7811,16 +7811,16 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>國泰路二段與南京路口</t>
+          <t>國泰路一段與鳳頂路口</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I253" t="inlineStr"/>
     </row>
@@ -7840,12 +7840,12 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>鳳頂路與過埤路口</t>
+          <t>南華一路與和成路</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H254" t="n">
@@ -7869,18 +7869,16 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>臨海路與南華一路口</t>
+          <t>國泰路二段與南京路口</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>闖紅燈兼超速</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>60</v>
       </c>
       <c r="I255" t="inlineStr"/>
     </row>
@@ -7900,12 +7898,12 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>過埤路與鳳頂路口(快車道)</t>
+          <t>鳳頂路與過埤路口</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -7929,16 +7927,18 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>南華一路與鳳甲路口</t>
+          <t>臨海路與南華一路口</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>超速</t>
-        </is>
-      </c>
-      <c r="H257" t="n">
-        <v>50</v>
+          <t>闖紅燈</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="I257" t="inlineStr"/>
     </row>
@@ -7958,16 +7958,16 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>保南二路與保義街口</t>
+          <t>過埤路與鳳頂路口(快車道)</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I258" t="inlineStr"/>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>三商街高速公路口機慢車專用道往南415公尺處</t>
+          <t>南華一路與鳳甲路口</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="H259" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I259" t="inlineStr"/>
     </row>
@@ -8016,7 +8016,7 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>五甲一路與瑞隆東路口</t>
+          <t>保南二路與保義街口</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="H260" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I260" t="inlineStr"/>
     </row>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>橋頭區</t>
+          <t>鳳山區</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -8045,16 +8045,16 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>成功南路仕隆路口</t>
+          <t>三商街高速公路口機慢車專用道往南415公尺處</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I261" t="inlineStr"/>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>橋頭區</t>
+          <t>鳳山區</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -8074,12 +8074,12 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>白樹路175號對面</t>
+          <t>五甲一路與瑞隆東路口</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -8103,7 +8103,7 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>成功北路與新興路</t>
+          <t>成功南路仕隆路口</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -8132,16 +8132,16 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>成功北路與鐵道北路</t>
+          <t>白樹路175號對面</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I264" t="inlineStr"/>
     </row>
@@ -8161,12 +8161,12 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>成功南路與經武路口</t>
+          <t>成功北路與新興路</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H265" t="n">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>燕巢區</t>
+          <t>橋頭區</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -8190,7 +8190,7 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>旗楠路段(鳳旗路44號之10旁)</t>
+          <t>成功南路與經武路口</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="H266" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I266" t="inlineStr"/>
     </row>
@@ -8219,16 +8219,16 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>中興路與南一巷口(燕巢國中前)</t>
+          <t>旗楠路段(鳳旗路44號之10旁)</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I267" t="inlineStr"/>
     </row>
@@ -8248,7 +8248,7 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>台22線深水國小前路口</t>
+          <t>中興路與南一巷口(燕巢國中前)</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="H268" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I268" t="inlineStr"/>
     </row>
@@ -8277,16 +8277,16 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>鳳澄路7之32號前</t>
+          <t>台22線深水國小前路口</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I269" t="inlineStr"/>
     </row>
@@ -8306,12 +8306,12 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>深中路（台22線）國立高雄科學大學燕巢校區前</t>
+          <t>鳳澄路7之32號前</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H270" t="n">
@@ -8325,22 +8325,26 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>燕巢區</t>
+        </is>
+      </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>鳥松區松藝路段(北往南往圓山路方向)</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
-        <v>964</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>50公里</t>
-        </is>
+          <t>深中路（台22線）國立高雄科學大學燕巢校區前</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>闖紅燈兼超速</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>50</v>
       </c>
       <c r="I271" t="inlineStr"/>
     </row>
@@ -8350,22 +8354,26 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>彌陀區</t>
+        </is>
+      </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>鳥松區松藝路段(南往北往八德南路方向)</t>
-        </is>
-      </c>
-      <c r="G272" t="n">
-        <v>964</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>50公里</t>
-        </is>
+          <t>中正東路91號前</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>70</v>
       </c>
       <c r="I272" t="inlineStr"/>
     </row>
@@ -8381,7 +8389,7 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>內門區市道182號28.9K至31.8K(往東-內門市區方向)</t>
+          <t>鳥松區松藝路段(北往南往圓山路方向)</t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -8406,7 +8414,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>內門區市道182號28.9K至31.8K(往西-台南市龍崎區方向)</t>
+          <t>鳥松區松藝路段(南往北往八德南路方向)</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -8431,7 +8439,7 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>內門區台3線389.5至392.5K(往南)</t>
+          <t>內門區市道182號28.9K至31.8K(往東-內門市區方向)</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -8439,7 +8447,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>60公里</t>
+          <t>50公里</t>
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
@@ -8456,7 +8464,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>內門區台3線389.5至392.5K(往北)</t>
+          <t>內門區市道182號28.9K至31.8K(往西-台南市龍崎區方向)</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -8464,7 +8472,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>60公里</t>
+          <t>50公里</t>
         </is>
       </c>
       <c r="I276" t="inlineStr"/>
@@ -8481,15 +8489,17 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>左營區大中二路與華夏路口</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>路口各項違規(闖紅燈、騎乘人行道、逆向、違規迴轉等)</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr"/>
+          <t>內門區台3線389.5至392.5K(往南)</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>964</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>60公里</t>
+        </is>
+      </c>
       <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
@@ -8504,15 +8514,17 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>左營區博愛二路與新庄仔路口</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>路口各項違規(闖紅燈、占用左轉專用車道、違規迴轉等)</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr"/>
+          <t>內門區台3線389.5至392.5K(往北)</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>964</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>60公里</t>
+        </is>
+      </c>
       <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -8527,12 +8539,12 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>鳳山區過埤路與鳳頂路口</t>
+          <t>左營區大中二路與華夏路口</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、騎乘人行道、逆向、違規迴轉等)</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -8550,12 +8562,12 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>前鎮區中山四路與中安/中平路口</t>
+          <t>左營區博愛二路與新庄仔路口</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、占用左轉專用車道、違規迴轉等)</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -8573,7 +8585,7 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>前鎮區中山四路與中安/中平路口</t>
+          <t>鳳山區過埤路與鳳頂路口</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -8596,7 +8608,7 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>大寮區市道188號/鳳林二路口</t>
+          <t>前鎮區中山四路與中安/中平路口</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -8619,7 +8631,7 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>前鎮區新生路/金福路口</t>
+          <t>前鎮區中山四路與中安/中平路口</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -8642,7 +8654,7 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>小港區沿海二路/永光街口</t>
+          <t>大寮區市道188號/鳳林二路口</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -8665,7 +8677,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>小港區沿海二路/世全路口</t>
+          <t>前鎮區新生路/金福路口</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -8688,7 +8700,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>小港區沿海二路/世全路口</t>
+          <t>小港區沿海二路/永光街口</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -8711,7 +8723,7 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>前鎮區中華五路/復興二路口</t>
+          <t>小港區沿海二路/世全路口</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -8734,7 +8746,7 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>楠梓區鳳楠路/興西路口</t>
+          <t>小港區沿海二路/世全路口</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -8757,7 +8769,7 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>楠梓區鳳楠路/興西路口</t>
+          <t>前鎮區中華五路/復興二路口</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -8780,7 +8792,7 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>苓雅區中正一路/大順三路/河南路口</t>
+          <t>楠梓區鳳楠路/興西路口</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -8803,7 +8815,7 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>苓雅區中正一路/高速公路西側</t>
+          <t>楠梓區鳳楠路/興西路口</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -8826,7 +8838,7 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>苓雅區凱旋二、三路/三多二路</t>
+          <t>苓雅區中正一路/大順三路/河南路口</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -8849,7 +8861,7 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>左營區翠華路/勝利路</t>
+          <t>苓雅區中正一路/高速公路西側</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -8872,7 +8884,7 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>岡山區嘉新西路/岡山路口</t>
+          <t>苓雅區凱旋二、三路/三多二路</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -8895,12 +8907,12 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>小港區中山四路/平和東路</t>
+          <t>左營區翠華路/勝利路</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
@@ -8918,7 +8930,7 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路/過埤路</t>
+          <t>岡山區嘉新西路/岡山路口</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -8941,12 +8953,12 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>鼓山區馬卡道路/青海路</t>
+          <t>小港區中山四路/平和東路</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H297" t="inlineStr"/>
@@ -8964,12 +8976,12 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>前鎮區中山四路/鎮海路</t>
+          <t>鳳山區鳳頂路/過埤路</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
@@ -8987,12 +8999,12 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>三民區民族一路/建工路口</t>
+          <t>鼓山區馬卡道路/青海路</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H299" t="inlineStr"/>
@@ -9010,12 +9022,12 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>前鎮區中山三路與光華三路口</t>
+          <t>前鎮區中山四路/鎮海路</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H300" t="inlineStr"/>
@@ -9033,12 +9045,12 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>三民區博愛一路/九如二路口</t>
+          <t>三民區民族一路/建工路口</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H301" t="inlineStr"/>
@@ -9056,7 +9068,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>三民區中山一路/建國二路口</t>
+          <t>前鎮區中山三路與光華三路口</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -9079,7 +9091,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>鼓山區北斗街/鼓山二路</t>
+          <t>三民區博愛一路/九如二路口</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -9102,7 +9114,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>鼓山區北斗街/鼓山二路</t>
+          <t>三民區中山一路/建國二路口</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -9125,7 +9137,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>鼓山區鼓山一路/五福四路</t>
+          <t>鼓山區北斗街/鼓山二路</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -9148,7 +9160,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>鼓山區華安街/馬卡道路口</t>
+          <t>鼓山區北斗街/鼓山二路</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -9171,7 +9183,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>鼓山區華安街/馬卡道路口</t>
+          <t>鼓山區鼓山一路/五福四路</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -9217,12 +9229,12 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>鼓山區大公路/鼓山一路</t>
+          <t>鼓山區華安街/馬卡道路口</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H309" t="inlineStr"/>
@@ -9240,7 +9252,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>苓雅區凱旋二路/四維二路</t>
+          <t>鼓山區華安街/馬卡道路口</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -9263,12 +9275,12 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>苓雅區凱旋二路/四維二路</t>
+          <t>鼓山區大公路/鼓山一路</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -9332,12 +9344,12 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>苓雅區凱旋三路/武昌路</t>
+          <t>苓雅區凱旋二路/四維二路</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -9355,12 +9367,12 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>苓雅區凱旋三路/武昌路</t>
+          <t>苓雅區凱旋二路/四維二路</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H315" t="inlineStr"/>
@@ -9424,12 +9436,12 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路/中山三路</t>
+          <t>苓雅區凱旋三路/武昌路</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H318" t="inlineStr"/>
@@ -9447,12 +9459,12 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路/中山三路</t>
+          <t>苓雅區凱旋三路/武昌路</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H319" t="inlineStr"/>
@@ -9470,7 +9482,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>前鎮區凱旋三路/二聖一路</t>
+          <t>前鎮區凱旋四路/中山三路</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -9493,7 +9505,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>前鎮區凱旋三路/二聖一路</t>
+          <t>前鎮區凱旋四路/中山三路</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -9539,7 +9551,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路/鎮興路</t>
+          <t>前鎮區凱旋三路/二聖一路</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -9562,7 +9574,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路/前鎮街</t>
+          <t>前鎮區凱旋三路/二聖一路</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -9585,7 +9597,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>鳳山區鳳松路/經武路</t>
+          <t>前鎮區凱旋四路/鎮興路</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -9608,7 +9620,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>三民區大中一路/鼎中路口</t>
+          <t>前鎮區凱旋四路/前鎮街</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -9631,7 +9643,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>鳳山區五甲一路/凱旋路</t>
+          <t>鳳山區鳳松路/經武路</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -9654,7 +9666,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>前金區中山一路/民生一路、民生二路</t>
+          <t>三民區大中一路/鼎中路口</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9677,7 +9689,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>苓雅區武營路/三多一路（含無號誌路口右轉專用車道）</t>
+          <t>鳳山區五甲一路/凱旋路</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -9700,7 +9712,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>楠梓區加昌路/海專路</t>
+          <t>前金區中山一路/民生一路、民生二路</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -9723,7 +9735,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>楠梓區後昌路/左楠路</t>
+          <t>苓雅區武營路/三多一路（含無號誌路口右轉專用車道）</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -9746,7 +9758,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>楠梓區楠陽路/鳳楠路</t>
+          <t>楠梓區加昌路/海專路</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -9769,7 +9781,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>大寮區市道188號(內坑路)與高72線路口</t>
+          <t>楠梓區後昌路/左楠路</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -9792,7 +9804,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>林園區沿海路四段/王公路/東林西路口</t>
+          <t>楠梓區楠陽路/鳳楠路</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -9815,12 +9827,12 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>前鎮區中安路/明鳳五街路口</t>
+          <t>大寮區市道188號(內坑路)與高72線路口</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、禁止迴轉、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H335" t="inlineStr"/>
@@ -9838,7 +9850,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>左營區翠華路/大中二路</t>
+          <t>林園區沿海路四段/王公路/東林西路口</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -9861,12 +9873,12 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>左營區翠華路/大中二路</t>
+          <t>前鎮區中安路/明鳳五街路口</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、禁止迴轉、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -9884,12 +9896,12 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>仁武區高楠公路/八德二路</t>
+          <t>左營區翠華路/大中二路</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -9907,12 +9919,12 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>前金區中華三路/五褔三路口</t>
+          <t>左營區翠華路/大中二路</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、車不停讓行人、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -9930,12 +9942,12 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>前金區中華三路/五褔三路口</t>
+          <t>仁武區高楠公路/八德二路</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、車不停讓行人、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H340" t="inlineStr"/>
@@ -9953,12 +9965,12 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>前鎮區中山四路/五甲三路口</t>
+          <t>前金區中華三路/五褔三路口</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、車不停讓行人、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -9976,12 +9988,12 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>左營區民族一路/大中二路</t>
+          <t>前金區中華三路/五褔三路口</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、車不停讓行人、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H342" t="inlineStr"/>
@@ -9999,12 +10011,12 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>楠梓區高楠公路/水管路口</t>
+          <t>前鎮區中山四路/五甲三路口</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H343" t="inlineStr"/>
@@ -10022,12 +10034,12 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>苓雅區建國一路/高速公路東側便道</t>
+          <t>左營區民族一路/大中二路</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H344" t="inlineStr"/>
@@ -10045,12 +10057,12 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>仁武區澄觀路二段/水管路三段</t>
+          <t>楠梓區高楠公路/水管路口</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H345" t="inlineStr"/>
@@ -10068,7 +10080,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>苓雅區中正一路/輔仁路口</t>
+          <t>苓雅區建國一路/高速公路東側便道</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -10091,12 +10103,12 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>苓雅區中正一路/高速公路東側便道</t>
+          <t>仁武區澄觀路二段/水管路三段</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、占用左轉專用車道、違規迴轉等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H347" t="inlineStr"/>
@@ -10114,12 +10126,12 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>左營區華夏路/新莊一路口</t>
+          <t>苓雅區中正一路/輔仁路口</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、車不停讓行人、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H348" t="inlineStr"/>
@@ -10137,12 +10149,12 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>左營區博愛二路/裕誠路</t>
+          <t>苓雅區中正一路/高速公路東側便道</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、車不停讓行人、汽車占用機慢車停等區、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、占用左轉專用車道、違規迴轉等)</t>
         </is>
       </c>
       <c r="H349" t="inlineStr"/>
@@ -10160,12 +10172,12 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>三民區九如一路/高速公路東側便道</t>
+          <t>左營區華夏路/新莊一路口</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、車不停讓行人、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H350" t="inlineStr"/>
@@ -10183,12 +10195,12 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>左營區翠華路/新庄仔路口</t>
+          <t>左營區博愛二路/裕誠路</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、車不停讓行人、汽車占用機慢車停等區、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H351" t="inlineStr"/>
@@ -10206,12 +10218,12 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>三民區自由一路/同盟一路口</t>
+          <t>三民區九如一路/高速公路東側便道</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H352" t="inlineStr"/>
@@ -10229,12 +10241,12 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>楠梓區德民路/海專路口</t>
+          <t>左營區翠華路/新庄仔路口</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H353" t="inlineStr"/>
@@ -10252,10 +10264,14 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>前金區五福三路/自強二路</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr"/>
+          <t>三民區自由一路/同盟一路口</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+        </is>
+      </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
     </row>
@@ -10271,10 +10287,14 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>前金區五福三路/自強二路</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr"/>
+          <t>楠梓區德民路/海專路口</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+        </is>
+      </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
     </row>
@@ -10290,10 +10310,14 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>三民區建工路/大昌二路</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr"/>
+          <t>橋頭區成功北路與鐵道北路</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+        </is>
+      </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
     </row>
@@ -10309,7 +10333,7 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>三民區建工路/大昌二路</t>
+          <t>前金區五福三路/自強二路</t>
         </is>
       </c>
       <c r="G357" t="inlineStr"/>
@@ -10328,7 +10352,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>三民區天祥一路/鼎中路</t>
+          <t>前金區五福三路/自強二路</t>
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
@@ -10347,7 +10371,7 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>三民區九如一路/光武路口</t>
+          <t>三民區建工路/大昌二路</t>
         </is>
       </c>
       <c r="G359" t="inlineStr"/>
@@ -10366,7 +10390,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>大寮區鳳屏一路/成功路</t>
+          <t>三民區建工路/大昌二路</t>
         </is>
       </c>
       <c r="G360" t="inlineStr"/>
@@ -10385,7 +10409,7 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>左營區新莊一路/博愛二路</t>
+          <t>三民區天祥一路/鼎中路</t>
         </is>
       </c>
       <c r="G361" t="inlineStr"/>
@@ -10404,7 +10428,7 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>左營區民族一路/榮佑路</t>
+          <t>三民區九如一路/光武路口</t>
         </is>
       </c>
       <c r="G362" t="inlineStr"/>
@@ -10423,7 +10447,7 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>左營區自由三路/孟子路</t>
+          <t>大寮區鳳屏一路/成功路</t>
         </is>
       </c>
       <c r="G363" t="inlineStr"/>
@@ -10442,7 +10466,7 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>左營區高鐵路/重愛路</t>
+          <t>左營區新莊一路/博愛二路</t>
         </is>
       </c>
       <c r="G364" t="inlineStr"/>
@@ -10461,7 +10485,7 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>岡山區岡山路/維新路口</t>
+          <t>左營區民族一路/榮佑路</t>
         </is>
       </c>
       <c r="G365" t="inlineStr"/>
@@ -10480,7 +10504,7 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>前金區大同二路/中華三路</t>
+          <t>左營區自由三路/孟子路</t>
         </is>
       </c>
       <c r="G366" t="inlineStr"/>
@@ -10499,7 +10523,7 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>苓雅區文橫二路/三多三路</t>
+          <t>左營區高鐵路/重愛路</t>
         </is>
       </c>
       <c r="G367" t="inlineStr"/>
@@ -10518,7 +10542,7 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>鼓山區中華一路/美術館路</t>
+          <t>岡山區岡山路/維新路口</t>
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
@@ -10537,7 +10561,7 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>新興區六合一路/林森一路</t>
+          <t>前金區大同二路/中華三路</t>
         </is>
       </c>
       <c r="G369" t="inlineStr"/>
@@ -10556,7 +10580,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>新興區五福二路/復興二路</t>
+          <t>苓雅區文橫二路/三多三路</t>
         </is>
       </c>
       <c r="G370" t="inlineStr"/>
@@ -10575,7 +10599,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>新興區林森一路/七賢一路</t>
+          <t>鼓山區中華一路/美術館路</t>
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
@@ -10594,7 +10618,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>新興區中正三路/復興一路</t>
+          <t>新興區六合一路/林森一路</t>
         </is>
       </c>
       <c r="G372" t="inlineStr"/>
@@ -10613,7 +10637,7 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>苓雅區五福一路/和平一路</t>
+          <t>新興區五福二路/復興二路</t>
         </is>
       </c>
       <c r="G373" t="inlineStr"/>
@@ -10632,7 +10656,7 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>苓雅區建國一路/福德二路</t>
+          <t>新興區林森一路/七賢一路</t>
         </is>
       </c>
       <c r="G374" t="inlineStr"/>
@@ -10651,7 +10675,7 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>楠梓區藍田路/藍昌路</t>
+          <t>新興區中正三路/復興一路</t>
         </is>
       </c>
       <c r="G375" t="inlineStr"/>
@@ -10670,7 +10694,7 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>鳳山區五甲一路/中山路</t>
+          <t>苓雅區五福一路/和平一路</t>
         </is>
       </c>
       <c r="G376" t="inlineStr"/>
@@ -10689,7 +10713,7 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>鳳山區維新路/光遠路</t>
+          <t>苓雅區建國一路/福德二路</t>
         </is>
       </c>
       <c r="G377" t="inlineStr"/>
@@ -10708,7 +10732,7 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>鳳山區文衡路/青年路二段</t>
+          <t>楠梓區藍田路/藍昌路</t>
         </is>
       </c>
       <c r="G378" t="inlineStr"/>
@@ -10727,14 +10751,10 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>三民區高雄車站前站西路段</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>違規停車</t>
-        </is>
-      </c>
+          <t>鳳山區五甲一路/中山路</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
     </row>
@@ -10750,14 +10770,10 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>三民區高雄車站前站東路段</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>違規停車</t>
-        </is>
-      </c>
+          <t>鳳山區維新路/光遠路</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr"/>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
     </row>
@@ -10773,14 +10789,10 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
         <is>
-          <t>左營區民族一路/重愛路</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>闖紅燈(左、右轉)、紅燈越線</t>
-        </is>
-      </c>
+          <t>鳳山區文衡路/青年路二段</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr"/>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
     </row>
@@ -10796,12 +10808,12 @@
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr">
         <is>
-          <t>小港區高鳳路/松興路</t>
+          <t>三民區高雄車站前站西路段</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>闖紅燈(左、右轉)、紅燈越線</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H382" t="inlineStr"/>
@@ -10819,12 +10831,12 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>橋頭區隆豐路/公園路</t>
+          <t>三民區高雄車站前站東路段</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>闖紅燈(左、右轉)、紅燈越線</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H383" t="inlineStr"/>
@@ -10842,7 +10854,7 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>仁武區水管路三段/義大二路</t>
+          <t>左營區民族一路/重愛路</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -10865,7 +10877,7 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>鳥松區本館路/球場路</t>
+          <t>小港區高鳳路/松興路</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -10888,7 +10900,7 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>仁武區高楠公路/八德二路</t>
+          <t>橋頭區隆豐路/公園路</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -10911,7 +10923,7 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>仁武區澄觀路二段/水管路三段</t>
+          <t>仁武區水管路三段/義大二路</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -10934,7 +10946,7 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路/澄觀路</t>
+          <t>鳥松區本館路/球場路</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -10957,7 +10969,7 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>大寮區鳳林三路/萬丹路</t>
+          <t>仁武區高楠公路/八德二路</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -10980,12 +10992,12 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>前鎮區中華五路與時代大道路口東側</t>
+          <t>仁武區澄觀路二段/水管路三段</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>路口各項違規(機車行駛人行穿越道線、逆向、未依二段式左轉等)</t>
+          <t>闖紅燈(左、右轉)、紅燈越線</t>
         </is>
       </c>
       <c r="H390" t="inlineStr"/>
@@ -11003,12 +11015,12 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>前鎮區中華五路與時代大道路口南側</t>
+          <t>仁武區鳳仁路/澄觀路</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>路口各項違規(機車行駛人行穿越道線、逆向、未依二段式左轉等)</t>
+          <t>闖紅燈(左、右轉)、紅燈越線</t>
         </is>
       </c>
       <c r="H391" t="inlineStr"/>
@@ -11026,12 +11038,12 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>前鎮區中華五路與正勤路口西側</t>
+          <t>大寮區鳳林三路/萬丹路</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>路口各項違規(機車行駛人行穿越道線、逆向、未依二段式左轉等)</t>
+          <t>闖紅燈(左、右轉)、紅燈越線</t>
         </is>
       </c>
       <c r="H392" t="inlineStr"/>
@@ -11049,7 +11061,7 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>前鎮區中華五路與正勤路口北側</t>
+          <t>前鎮區中華五路與時代大道路口東側</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -11072,12 +11084,12 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>大寮區市道188號/鳳林二路口(西向)</t>
+          <t>前鎮區中華五路與時代大道路口南側</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(機車行駛人行穿越道線、逆向、未依二段式左轉等)</t>
         </is>
       </c>
       <c r="H394" t="inlineStr"/>
@@ -11095,12 +11107,12 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr">
         <is>
-          <t>大寮區市道188號/華中路口(東向)</t>
+          <t>前鎮區中華五路與正勤路口西側</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
+          <t>路口各項違規(機車行駛人行穿越道線、逆向、未依二段式左轉等)</t>
         </is>
       </c>
       <c r="H395" t="inlineStr"/>
@@ -11118,12 +11130,12 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
-          <t>新興區中山一路與五福二路東側</t>
+          <t>前鎮區中華五路與正勤路口北側</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>不禮讓行人</t>
+          <t>路口各項違規(機車行駛人行穿越道線、逆向、未依二段式左轉等)</t>
         </is>
       </c>
       <c r="H396" t="inlineStr"/>
@@ -11141,12 +11153,12 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr">
         <is>
-          <t>新興區中山一路與五福二路北側</t>
+          <t>大寮區市道188號/鳳林二路口(西向)</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>不禮讓行人</t>
+          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H397" t="inlineStr"/>
@@ -11164,12 +11176,12 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>左營區博愛二路與裕誠路北側</t>
+          <t>大寮區市道188號/華中路口(東向)</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>不禮讓行人</t>
+          <t>路口各項違規(不依標誌標線號誌行駛等)</t>
         </is>
       </c>
       <c r="H398" t="inlineStr"/>
@@ -11187,7 +11199,7 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>左營區博愛二路與裕誠路西側</t>
+          <t>新興區中山一路與五福二路東側</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -11210,12 +11222,12 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
-          <t>三民區澄清路與九如一路口</t>
+          <t>新興區中山一路與五福二路北側</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>不禮讓行人</t>
         </is>
       </c>
       <c r="H400" t="inlineStr"/>
@@ -11233,12 +11245,12 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>前鎮區漁港路與新生路</t>
+          <t>左營區博愛二路與裕誠路北側</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+          <t>不禮讓行人</t>
         </is>
       </c>
       <c r="H401" t="inlineStr"/>
@@ -11250,21 +11262,19 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>三民區</t>
-        </is>
-      </c>
+      <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
-          <t>中華二路</t>
-        </is>
-      </c>
-      <c r="G402" t="n">
-        <v>5</v>
+          <t>左營區博愛二路與裕誠路西側</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>不禮讓行人</t>
+        </is>
       </c>
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr"/>
@@ -11275,21 +11285,19 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>三民區</t>
-        </is>
-      </c>
+      <c r="B403" t="inlineStr"/>
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr">
         <is>
-          <t>民族一路</t>
-        </is>
-      </c>
-      <c r="G403" t="n">
-        <v>5</v>
+          <t>三民區澄清路與九如一路口</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+        </is>
       </c>
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr"/>
@@ -11300,21 +11308,19 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>三民區</t>
-        </is>
-      </c>
+      <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr">
         <is>
-          <t>九如一路</t>
-        </is>
-      </c>
-      <c r="G404" t="n">
-        <v>5</v>
+          <t>前鎮區漁港路與新生路</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、不依標誌標線號誌行駛等)</t>
+        </is>
       </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr"/>
@@ -11335,7 +11341,7 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr">
         <is>
-          <t>大順二路</t>
+          <t>中華二路</t>
         </is>
       </c>
       <c r="G405" t="n">
@@ -11360,7 +11366,7 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr">
         <is>
-          <t>河堤路</t>
+          <t>民族一路</t>
         </is>
       </c>
       <c r="G406" t="n">
@@ -11385,7 +11391,7 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr">
         <is>
-          <t>同盟三路</t>
+          <t>九如一路</t>
         </is>
       </c>
       <c r="G407" t="n">
@@ -11402,7 +11408,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>小港區</t>
+          <t>三民區</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -11410,7 +11416,7 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr">
         <is>
-          <t>中山四路</t>
+          <t>大順二路</t>
         </is>
       </c>
       <c r="G408" t="n">
@@ -11427,7 +11433,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>小港區</t>
+          <t>三民區</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -11435,7 +11441,7 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
-          <t>沿海三路</t>
+          <t>河堤路</t>
         </is>
       </c>
       <c r="G409" t="n">
@@ -11452,7 +11458,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>大社區</t>
+          <t>三民區</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -11460,7 +11466,7 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
-          <t>和平路一段</t>
+          <t>同盟三路</t>
         </is>
       </c>
       <c r="G410" t="n">
@@ -11477,7 +11483,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>大社區</t>
+          <t>小港區</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -11485,7 +11491,7 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
-          <t>中山路</t>
+          <t>中山四路</t>
         </is>
       </c>
       <c r="G411" t="n">
@@ -11502,7 +11508,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>大樹區</t>
+          <t>小港區</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -11510,7 +11516,7 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr">
         <is>
-          <t>大社區市道186甲線</t>
+          <t>沿海三路</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -11527,7 +11533,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>大樹區</t>
+          <t>大社區</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -11535,7 +11541,7 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
         <is>
-          <t>台29線</t>
+          <t>和平路一段</t>
         </is>
       </c>
       <c r="G413" t="n">
@@ -11552,7 +11558,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>大樹區</t>
+          <t>大社區</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -11560,7 +11566,7 @@
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr">
         <is>
-          <t>和山路</t>
+          <t>中山路</t>
         </is>
       </c>
       <c r="G414" t="n">
@@ -11577,7 +11583,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>仁武區</t>
+          <t>大樹區</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -11585,7 +11591,7 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr">
         <is>
-          <t>澄觀路一段</t>
+          <t>大社區市道186甲線</t>
         </is>
       </c>
       <c r="G415" t="n">
@@ -11602,7 +11608,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>仁武區</t>
+          <t>大樹區</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -11610,7 +11616,7 @@
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr">
         <is>
-          <t>澄觀路</t>
+          <t>台29線</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -11627,7 +11633,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>仁武區</t>
+          <t>大樹區</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -11635,7 +11641,7 @@
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr">
         <is>
-          <t>鳳仁路</t>
+          <t>和山路</t>
         </is>
       </c>
       <c r="G417" t="n">
@@ -11660,7 +11666,7 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr">
         <is>
-          <t>高楠公路</t>
+          <t>澄觀路一段</t>
         </is>
       </c>
       <c r="G418" t="n">
@@ -11677,7 +11683,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>鳥松區</t>
+          <t>仁武區</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -11685,7 +11691,7 @@
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr">
         <is>
-          <t>文前路</t>
+          <t>澄觀路</t>
         </is>
       </c>
       <c r="G419" t="n">
@@ -11702,7 +11708,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>鳥松區</t>
+          <t>仁武區</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -11710,7 +11716,7 @@
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr">
         <is>
-          <t>本館路</t>
+          <t>鳳仁路</t>
         </is>
       </c>
       <c r="G420" t="n">
@@ -11727,7 +11733,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>鳥松區</t>
+          <t>仁武區</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -11735,7 +11741,7 @@
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr">
         <is>
-          <t>大埤路</t>
+          <t>高楠公路</t>
         </is>
       </c>
       <c r="G421" t="n">
@@ -11760,7 +11766,7 @@
       <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr">
         <is>
-          <t>神農路</t>
+          <t>文前路</t>
         </is>
       </c>
       <c r="G422" t="n">
@@ -11785,7 +11791,7 @@
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>中正路</t>
+          <t>本館路</t>
         </is>
       </c>
       <c r="G423" t="n">
@@ -11802,7 +11808,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>仁武區</t>
+          <t>鳥松區</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -11810,7 +11816,7 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr">
         <is>
-          <t>水管路</t>
+          <t>大埤路</t>
         </is>
       </c>
       <c r="G424" t="n">
@@ -11827,7 +11833,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>仁武區</t>
+          <t>鳥松區</t>
         </is>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -11835,7 +11841,7 @@
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr">
         <is>
-          <t>義大二路</t>
+          <t>神農路</t>
         </is>
       </c>
       <c r="G425" t="n">
@@ -11852,7 +11858,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>六龜區</t>
+          <t>鳥松區</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -11860,7 +11866,7 @@
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr">
         <is>
-          <t>台20線</t>
+          <t>中正路</t>
         </is>
       </c>
       <c r="G426" t="n">
@@ -11877,7 +11883,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>六龜區</t>
+          <t>仁武區</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -11885,7 +11891,7 @@
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>台27線</t>
+          <t>水管路</t>
         </is>
       </c>
       <c r="G427" t="n">
@@ -11902,7 +11908,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>六龜區</t>
+          <t>仁武區</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -11910,7 +11916,7 @@
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>台27甲線</t>
+          <t>義大二路</t>
         </is>
       </c>
       <c r="G428" t="n">
@@ -11927,7 +11933,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>左營區</t>
+          <t>六龜區</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -11935,7 +11941,7 @@
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
-          <t>民族一路</t>
+          <t>台20線</t>
         </is>
       </c>
       <c r="G429" t="n">
@@ -11952,7 +11958,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>左營區</t>
+          <t>六龜區</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -11960,7 +11966,7 @@
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr">
         <is>
-          <t>大中二路</t>
+          <t>台27線</t>
         </is>
       </c>
       <c r="G430" t="n">
@@ -11977,7 +11983,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>左營區</t>
+          <t>六龜區</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -11985,7 +11991,7 @@
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr">
         <is>
-          <t>翠華路</t>
+          <t>台27甲線</t>
         </is>
       </c>
       <c r="G431" t="n">
@@ -12010,7 +12016,7 @@
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr">
         <is>
-          <t>博愛三路</t>
+          <t>民族一路</t>
         </is>
       </c>
       <c r="G432" t="n">
@@ -12035,7 +12041,7 @@
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
         <is>
-          <t>新莊一路</t>
+          <t>大中二路</t>
         </is>
       </c>
       <c r="G433" t="n">
@@ -12060,7 +12066,7 @@
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr">
         <is>
-          <t>新庄仔路</t>
+          <t>翠華路</t>
         </is>
       </c>
       <c r="G434" t="n">
@@ -12085,7 +12091,7 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr">
         <is>
-          <t>高鐵路</t>
+          <t>博愛三路</t>
         </is>
       </c>
       <c r="G435" t="n">
@@ -12102,7 +12108,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>岡山區</t>
+          <t>左營區</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -12110,7 +12116,7 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr">
         <is>
-          <t>國軒路</t>
+          <t>新莊一路</t>
         </is>
       </c>
       <c r="G436" t="n">
@@ -12127,7 +12133,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>梓官區</t>
+          <t>左營區</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -12135,7 +12141,7 @@
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr">
         <is>
-          <t>大舍南路</t>
+          <t>新庄仔路</t>
         </is>
       </c>
       <c r="G437" t="n">
@@ -12152,7 +12158,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>橋頭區</t>
+          <t>左營區</t>
         </is>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -12160,7 +12166,7 @@
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr">
         <is>
-          <t>甲樹路</t>
+          <t>高鐵路</t>
         </is>
       </c>
       <c r="G438" t="n">
@@ -12177,7 +12183,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>燕巢區</t>
+          <t>岡山區</t>
         </is>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -12185,7 +12191,7 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr">
         <is>
-          <t>台22線橫山路至牧場路段</t>
+          <t>國軒路</t>
         </is>
       </c>
       <c r="G439" t="n">
@@ -12202,7 +12208,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>彌陀區</t>
+          <t>梓官區</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -12210,7 +12216,7 @@
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr">
         <is>
-          <t>中正南路</t>
+          <t>大舍南路</t>
         </is>
       </c>
       <c r="G440" t="n">
@@ -12227,7 +12233,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>永安區</t>
+          <t>橋頭區</t>
         </is>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -12235,7 +12241,7 @@
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr">
         <is>
-          <t>保安路</t>
+          <t>甲樹路</t>
         </is>
       </c>
       <c r="G441" t="n">
@@ -12252,7 +12258,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>岡山區</t>
+          <t>燕巢區</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -12260,7 +12266,7 @@
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
-          <t>聖森路</t>
+          <t>台22線橫山路至牧場路段</t>
         </is>
       </c>
       <c r="G442" t="n">
@@ -12277,7 +12283,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>燕巢區</t>
+          <t>彌陀區</t>
         </is>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -12285,7 +12291,7 @@
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
-          <t>安招路</t>
+          <t>中正南路</t>
         </is>
       </c>
       <c r="G443" t="n">
@@ -12302,7 +12308,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>大寮區</t>
+          <t>永安區</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -12310,7 +12316,7 @@
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
-          <t>河堤路二段</t>
+          <t>保安路</t>
         </is>
       </c>
       <c r="G444" t="n">
@@ -12327,7 +12333,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>大寮區</t>
+          <t>岡山區</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -12335,7 +12341,7 @@
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr">
         <is>
-          <t>華中路</t>
+          <t>聖森路</t>
         </is>
       </c>
       <c r="G445" t="n">
@@ -12352,7 +12358,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>大寮區</t>
+          <t>燕巢區</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -12360,7 +12366,7 @@
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr">
         <is>
-          <t>河堤路三段</t>
+          <t>安招路</t>
         </is>
       </c>
       <c r="G446" t="n">
@@ -12385,7 +12391,7 @@
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr">
         <is>
-          <t>高79線河堤路</t>
+          <t>河堤路二段</t>
         </is>
       </c>
       <c r="G447" t="n">
@@ -12410,7 +12416,7 @@
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr">
         <is>
-          <t>光明路一段</t>
+          <t>華中路</t>
         </is>
       </c>
       <c r="G448" t="n">
@@ -12435,7 +12441,7 @@
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr">
         <is>
-          <t>光明路三段</t>
+          <t>河堤路三段</t>
         </is>
       </c>
       <c r="G449" t="n">
@@ -12460,7 +12466,7 @@
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr">
         <is>
-          <t>高74線新厝路</t>
+          <t>高79線河堤路</t>
         </is>
       </c>
       <c r="G450" t="n">
@@ -12485,7 +12491,7 @@
       <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr">
         <is>
-          <t>捷西路</t>
+          <t>光明路一段</t>
         </is>
       </c>
       <c r="G451" t="n">
@@ -12510,7 +12516,7 @@
       <c r="E452" t="inlineStr"/>
       <c r="F452" t="inlineStr">
         <is>
-          <t>高68線</t>
+          <t>光明路三段</t>
         </is>
       </c>
       <c r="G452" t="n">
@@ -12535,7 +12541,7 @@
       <c r="E453" t="inlineStr"/>
       <c r="F453" t="inlineStr">
         <is>
-          <t>鳳屏二路</t>
+          <t>高74線新厝路</t>
         </is>
       </c>
       <c r="G453" t="n">
@@ -12560,7 +12566,7 @@
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr">
         <is>
-          <t>鳳林路四段</t>
+          <t>捷西路</t>
         </is>
       </c>
       <c r="G454" t="n">
@@ -12585,7 +12591,7 @@
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr">
         <is>
-          <t>大漢路</t>
+          <t>高68線</t>
         </is>
       </c>
       <c r="G455" t="n">
@@ -12610,7 +12616,7 @@
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr">
         <is>
-          <t>台25線鳳林路段</t>
+          <t>鳳屏二路</t>
         </is>
       </c>
       <c r="G456" t="n">
@@ -12635,7 +12641,7 @@
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr">
         <is>
-          <t>市道188線</t>
+          <t>鳳林路四段</t>
         </is>
       </c>
       <c r="G457" t="n">
@@ -12652,7 +12658,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>林園區</t>
+          <t>大寮區</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -12660,7 +12666,7 @@
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr">
         <is>
-          <t>台17線沿海路段</t>
+          <t>大漢路</t>
         </is>
       </c>
       <c r="G458" t="n">
@@ -12677,7 +12683,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>林園區</t>
+          <t>大寮區</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -12685,7 +12691,7 @@
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr">
         <is>
-          <t>河堤路一段</t>
+          <t>台25線鳳林路段</t>
         </is>
       </c>
       <c r="G459" t="n">
@@ -12702,7 +12708,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>林園區</t>
+          <t>大寮區</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -12710,7 +12716,7 @@
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr">
         <is>
-          <t>鳳林路二段</t>
+          <t>市道188線</t>
         </is>
       </c>
       <c r="G460" t="n">
@@ -12727,7 +12733,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>前鎮區</t>
+          <t>林園區</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -12735,7 +12741,7 @@
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
         <is>
-          <t>中山三路</t>
+          <t>台17線沿海路段</t>
         </is>
       </c>
       <c r="G461" t="n">
@@ -12752,7 +12758,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>前鎮區</t>
+          <t>林園區</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -12760,7 +12766,7 @@
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr">
         <is>
-          <t>中山四路</t>
+          <t>河堤路一段</t>
         </is>
       </c>
       <c r="G462" t="n">
@@ -12777,7 +12783,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>苓雅區</t>
+          <t>林園區</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -12785,7 +12791,7 @@
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
-          <t>中華四路</t>
+          <t>鳳林路二段</t>
         </is>
       </c>
       <c r="G463" t="n">
@@ -12802,7 +12808,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>苓雅區</t>
+          <t>前鎮區</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -12810,7 +12816,7 @@
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr">
         <is>
-          <t>五福一路</t>
+          <t>中山三路</t>
         </is>
       </c>
       <c r="G464" t="n">
@@ -12827,7 +12833,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>苓雅區</t>
+          <t>前鎮區</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -12835,7 +12841,7 @@
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr">
         <is>
-          <t>三多一路</t>
+          <t>中山四路</t>
         </is>
       </c>
       <c r="G465" t="n">
@@ -12860,7 +12866,7 @@
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr">
         <is>
-          <t>凱旋三路</t>
+          <t>中華四路</t>
         </is>
       </c>
       <c r="G466" t="n">
@@ -12877,7 +12883,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>田寮區</t>
+          <t>苓雅區</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
@@ -12885,7 +12891,7 @@
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr">
         <is>
-          <t>台28線</t>
+          <t>五福一路</t>
         </is>
       </c>
       <c r="G467" t="n">
@@ -12902,7 +12908,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>茄萣區</t>
+          <t>苓雅區</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -12910,7 +12916,7 @@
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr">
         <is>
-          <t>濱海路</t>
+          <t>三多一路</t>
         </is>
       </c>
       <c r="G468" t="n">
@@ -12927,7 +12933,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>路竹區</t>
+          <t>苓雅區</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -12935,7 +12941,7 @@
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr">
         <is>
-          <t>中山路</t>
+          <t>凱旋三路</t>
         </is>
       </c>
       <c r="G469" t="n">
@@ -12952,7 +12958,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>路竹區</t>
+          <t>田寮區</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -12960,7 +12966,7 @@
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr">
         <is>
-          <t>環球路</t>
+          <t>台28線</t>
         </is>
       </c>
       <c r="G470" t="n">
@@ -12977,7 +12983,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>路竹區</t>
+          <t>茄萣區</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -12985,7 +12991,7 @@
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr">
         <is>
-          <t>大公路</t>
+          <t>濱海路</t>
         </is>
       </c>
       <c r="G471" t="n">
@@ -13002,7 +13008,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>前金區</t>
+          <t>路竹區</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -13010,7 +13016,7 @@
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr">
         <is>
-          <t>中華三路</t>
+          <t>中山路</t>
         </is>
       </c>
       <c r="G472" t="n">
@@ -13027,7 +13033,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>新興區</t>
+          <t>路竹區</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -13035,7 +13041,7 @@
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
         <is>
-          <t>中山一路</t>
+          <t>環球路</t>
         </is>
       </c>
       <c r="G473" t="n">
@@ -13052,7 +13058,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>楠梓區</t>
+          <t>路竹區</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -13060,7 +13066,7 @@
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr">
         <is>
-          <t>高楠公路</t>
+          <t>大公路</t>
         </is>
       </c>
       <c r="G474" t="n">
@@ -13077,7 +13083,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>鼓山區</t>
+          <t>前金區</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -13085,7 +13091,7 @@
       <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
-          <t>中華一路</t>
+          <t>中華三路</t>
         </is>
       </c>
       <c r="G475" t="n">
@@ -13102,7 +13108,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>旗津區</t>
+          <t>新興區</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -13110,7 +13116,7 @@
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
-          <t>旗津三路</t>
+          <t>中山一路</t>
         </is>
       </c>
       <c r="G476" t="n">
@@ -13127,7 +13133,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>內門區</t>
+          <t>楠梓區</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -13135,7 +13141,7 @@
       <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
-          <t>台3線</t>
+          <t>高楠公路</t>
         </is>
       </c>
       <c r="G477" t="n">
@@ -13152,7 +13158,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>甲仙區</t>
+          <t>鼓山區</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -13160,7 +13166,7 @@
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
-          <t>台3線光華路</t>
+          <t>中華一路</t>
         </is>
       </c>
       <c r="G478" t="n">
@@ -13177,7 +13183,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>杉林區</t>
+          <t>旗津區</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13185,7 +13191,7 @@
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
-          <t>杉美路二段</t>
+          <t>旗津三路</t>
         </is>
       </c>
       <c r="G479" t="n">
@@ -13202,7 +13208,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>杉林區</t>
+          <t>內門區</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -13210,7 +13216,7 @@
       <c r="E480" t="inlineStr"/>
       <c r="F480" t="inlineStr">
         <is>
-          <t>台29線</t>
+          <t>台3線</t>
         </is>
       </c>
       <c r="G480" t="n">
@@ -13227,7 +13233,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>美濃區</t>
+          <t>甲仙區</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13235,7 +13241,7 @@
       <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr">
         <is>
-          <t>復興路2段</t>
+          <t>台3線光華路</t>
         </is>
       </c>
       <c r="G481" t="n">
@@ -13252,7 +13258,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>美濃區</t>
+          <t>杉林區</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -13260,7 +13266,7 @@
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr">
         <is>
-          <t>中華路</t>
+          <t>杉美路二段</t>
         </is>
       </c>
       <c r="G482" t="n">
@@ -13277,7 +13283,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>美濃區</t>
+          <t>杉林區</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
@@ -13285,7 +13291,7 @@
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr">
         <is>
-          <t>中正路</t>
+          <t>台29線</t>
         </is>
       </c>
       <c r="G483" t="n">
@@ -13310,7 +13316,7 @@
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr">
         <is>
-          <t>中山路</t>
+          <t>復興路2段</t>
         </is>
       </c>
       <c r="G484" t="n">
@@ -13335,7 +13341,7 @@
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr">
         <is>
-          <t>中興路</t>
+          <t>中華路</t>
         </is>
       </c>
       <c r="G485" t="n">
@@ -13352,7 +13358,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>旗山區</t>
+          <t>美濃區</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -13360,7 +13366,7 @@
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr">
         <is>
-          <t>旗南二路</t>
+          <t>中正路</t>
         </is>
       </c>
       <c r="G486" t="n">
@@ -13377,7 +13383,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>旗山區</t>
+          <t>美濃區</t>
         </is>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -13385,7 +13391,7 @@
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr">
         <is>
-          <t>旗南一路</t>
+          <t>中山路</t>
         </is>
       </c>
       <c r="G487" t="n">
@@ -13402,7 +13408,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>旗山區</t>
+          <t>美濃區</t>
         </is>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -13410,7 +13416,7 @@
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr">
         <is>
-          <t>台3缐</t>
+          <t>中興路</t>
         </is>
       </c>
       <c r="G488" t="n">
@@ -13435,7 +13441,7 @@
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr">
         <is>
-          <t>台28線</t>
+          <t>旗南二路</t>
         </is>
       </c>
       <c r="G489" t="n">
@@ -13460,7 +13466,7 @@
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr">
         <is>
-          <t>旗甲三路</t>
+          <t>旗南一路</t>
         </is>
       </c>
       <c r="G490" t="n">
@@ -13485,7 +13491,7 @@
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr">
         <is>
-          <t>旗屏一路</t>
+          <t>台3缐</t>
         </is>
       </c>
       <c r="G491" t="n">
@@ -13502,7 +13508,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>鳳山區</t>
+          <t>旗山區</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -13510,7 +13516,7 @@
       <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr">
         <is>
-          <t>中山東路</t>
+          <t>台28線</t>
         </is>
       </c>
       <c r="G492" t="n">
@@ -13527,7 +13533,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>鳳山區</t>
+          <t>旗山區</t>
         </is>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -13535,7 +13541,7 @@
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr">
         <is>
-          <t>臨海路</t>
+          <t>旗甲三路</t>
         </is>
       </c>
       <c r="G493" t="n">
@@ -13552,7 +13558,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>鳳山區</t>
+          <t>旗山區</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -13560,7 +13566,7 @@
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr">
         <is>
-          <t>過埤路</t>
+          <t>旗屏一路</t>
         </is>
       </c>
       <c r="G494" t="n">
@@ -13577,7 +13583,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>鹽埕區</t>
+          <t>鳳山區</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
@@ -13585,7 +13591,7 @@
       <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr">
         <is>
-          <t>中正四路</t>
+          <t>中山東路</t>
         </is>
       </c>
       <c r="G495" t="n">
@@ -13602,7 +13608,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>鹽埕區</t>
+          <t>鳳山區</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -13610,7 +13616,7 @@
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr">
         <is>
-          <t>五福四路</t>
+          <t>臨海路</t>
         </is>
       </c>
       <c r="G496" t="n">
@@ -13625,19 +13631,21 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr"/>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>鳳山區</t>
+        </is>
+      </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr">
         <is>
-          <t>前鎮區復興四路與成功二路口</t>
-        </is>
-      </c>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>違規右轉</t>
-        </is>
+          <t>過埤路</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>5</v>
       </c>
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr"/>
@@ -13648,19 +13656,21 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B498" t="inlineStr"/>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>鹽埕區</t>
+        </is>
+      </c>
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
         <is>
-          <t>鼓山區美術館路與中華一路口</t>
-        </is>
-      </c>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>快慢車道闖紅燈</t>
-        </is>
+          <t>中正四路</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>5</v>
       </c>
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr"/>
@@ -13671,19 +13681,21 @@
           <t>高雄市</t>
         </is>
       </c>
-      <c r="B499" t="inlineStr"/>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>鹽埕區</t>
+        </is>
+      </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr">
         <is>
-          <t>鼓山區美術館路與中華一路口</t>
-        </is>
-      </c>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>違規左轉</t>
-        </is>
+          <t>五福四路</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>5</v>
       </c>
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr"/>
@@ -13700,12 +13712,12 @@
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與龍勝路口</t>
+          <t>前鎮區復興四路與成功二路口</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>違規左轉</t>
+          <t>違規右轉</t>
         </is>
       </c>
       <c r="H500" t="inlineStr"/>
@@ -13723,12 +13735,12 @@
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與博愛一路口</t>
+          <t>鼓山區美術館路與中華一路口</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>違規左轉</t>
+          <t>快慢車道闖紅燈</t>
         </is>
       </c>
       <c r="H501" t="inlineStr"/>
@@ -13746,7 +13758,7 @@
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
-          <t>左營區大順一路與自由路口</t>
+          <t>鼓山區美術館路與中華一路口</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -13769,7 +13781,7 @@
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr">
         <is>
-          <t>左營區大順一路與自由路口</t>
+          <t>鼓山區大順一路與龍勝路口</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -13792,7 +13804,7 @@
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr">
         <is>
-          <t>三民區大順一路與民族一路口</t>
+          <t>鼓山區大順一路與博愛一路口</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -13815,7 +13827,7 @@
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr">
         <is>
-          <t>三民區大順一路與民族一路口</t>
+          <t>左營區大順一路與自由路口</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -13838,7 +13850,7 @@
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr">
         <is>
-          <t>三民區大順二路與建工路口</t>
+          <t>左營區大順一路與自由路口</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -13861,7 +13873,7 @@
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr">
         <is>
-          <t>三民區大順二路與建工路口</t>
+          <t>三民區大順一路與民族一路口</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -13884,7 +13896,7 @@
       <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr">
         <is>
-          <t>三民區大順二路與九如一路口</t>
+          <t>三民區大順一路與民族一路口</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -13907,7 +13919,7 @@
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr">
         <is>
-          <t>三民區大順二路與九如一路口</t>
+          <t>三民區大順二路與建工路口</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -13930,7 +13942,7 @@
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與建國一路口</t>
+          <t>三民區大順二路與建工路口</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -13953,7 +13965,7 @@
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與建國一路口</t>
+          <t>三民區大順二路與九如一路口</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -13976,7 +13988,7 @@
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>三民區大順二路與九如一路口</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -13999,12 +14011,12 @@
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>苓雅區大順三路與建國一路口</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>違規左轉</t>
         </is>
       </c>
       <c r="H513" t="inlineStr"/>
@@ -14022,12 +14034,12 @@
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr">
         <is>
-          <t>前鎮區一心路與凱旋路口</t>
+          <t>苓雅區大順三路與建國一路口</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>違規右轉等各項違規</t>
+          <t>違規左轉</t>
         </is>
       </c>
       <c r="H514" t="inlineStr"/>
@@ -14045,12 +14057,12 @@
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr">
         <is>
-          <t>前鎮區一心路與凱旋路口</t>
+          <t>苓雅區河南路與中正一路口</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>違規右轉等各項違規</t>
+          <t>違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H515" t="inlineStr"/>
@@ -14068,12 +14080,12 @@
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr">
         <is>
-          <t>前鎮區成功路與新光停車場路口</t>
+          <t>苓雅區大順三路與中正一路口</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>闖紅燈、違規右轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H516" t="inlineStr"/>
@@ -14091,12 +14103,12 @@
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr">
         <is>
-          <t>前鎮區成功路與高雄展覽館路口</t>
+          <t>前鎮區一心路與凱旋路口</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>闖紅燈、違規右轉等各項違規</t>
+          <t>違規右轉等各項違規</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -14114,12 +14126,12 @@
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr">
         <is>
-          <t>前鎮區成功二路與新光路口</t>
+          <t>前鎮區一心路與凱旋路口</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>闖紅燈、違規右轉等各項違規</t>
+          <t>違規右轉等各項違規</t>
         </is>
       </c>
       <c r="H518" t="inlineStr"/>
@@ -14137,7 +14149,7 @@
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr">
         <is>
-          <t>前鎮區成功二路與台鋁路口</t>
+          <t>前鎮區成功路與新光停車場路口</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -14160,7 +14172,7 @@
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
-          <t>前鎮區班超路與凱旋路口</t>
+          <t>前鎮區成功路與高雄展覽館路口</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -14183,12 +14195,12 @@
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與鐵道一街口</t>
+          <t>前鎮區成功二路與新光路口</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈、違規右轉等各項違規</t>
         </is>
       </c>
       <c r="H521" t="inlineStr"/>
@@ -14206,12 +14218,12 @@
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與鐵道一街口</t>
+          <t>前鎮區成功二路與台鋁路口</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈、違規右轉等各項違規</t>
         </is>
       </c>
       <c r="H522" t="inlineStr"/>
@@ -14229,12 +14241,12 @@
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與大順三路281巷/282巷口</t>
+          <t>前鎮區班超路與凱旋路口</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈、違規右轉等各項違規</t>
         </is>
       </c>
       <c r="H523" t="inlineStr"/>
@@ -14252,7 +14264,7 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與憲政路口</t>
+          <t>苓雅區大順三路與鐵道一街口</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -14275,7 +14287,7 @@
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與憲政路口</t>
+          <t>苓雅區大順三路與鐵道一街口</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -14298,7 +14310,7 @@
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與武廟路口</t>
+          <t>苓雅區大順三路與大順三路281巷/282巷口</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -14321,7 +14333,7 @@
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與武廟路口</t>
+          <t>苓雅區大順三路與憲政路口</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -14344,7 +14356,7 @@
       <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與建民路口</t>
+          <t>苓雅區大順三路與憲政路口</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -14367,7 +14379,7 @@
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>苓雅區凱旋路與同慶路口</t>
+          <t>苓雅區大順三路與武廟路口</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
@@ -14390,12 +14402,12 @@
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>苓雅區凱旋路與同慶路口</t>
+          <t>苓雅區大順三路與武廟路口</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H530" t="inlineStr"/>
@@ -14413,12 +14425,12 @@
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>鹽埕區新樂街輕軌路口(近鼓山一路)</t>
+          <t>苓雅區大順三路與建民路口</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H531" t="inlineStr"/>
@@ -14436,12 +14448,12 @@
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>鹽埕區新樂街輕軌路口(近鼓山一路)</t>
+          <t>苓雅區凱旋路與同慶路口</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H532" t="inlineStr"/>
@@ -14459,7 +14471,7 @@
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>苓雅區凱旋路與同慶路口</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
@@ -14482,7 +14494,7 @@
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>鹽埕區新樂街輕軌路口(近鼓山一路)</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -14505,7 +14517,7 @@
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>鹽埕區新樂街輕軌路口(近鼓山一路)</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -14528,12 +14540,12 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與富民路口</t>
+          <t>苓雅區大順三路與中正一路口</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H536" t="inlineStr"/>
@@ -14551,12 +14563,12 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與富國路口</t>
+          <t>苓雅區大順三路與中正一路口</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H537" t="inlineStr"/>
@@ -14574,12 +14586,12 @@
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr">
         <is>
-          <t>鼓山區馬卡道路與青海路口</t>
+          <t>苓雅區大順三路與中正一路口</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H538" t="inlineStr"/>
@@ -14597,12 +14609,12 @@
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr">
         <is>
-          <t>鼓山區興隆路與河川街103巷22弄路口</t>
+          <t>鼓山區大順一路與富民路口</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H539" t="inlineStr"/>
@@ -14620,12 +14632,12 @@
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr">
         <is>
-          <t>鼓山區興隆路與河川街103巷22弄路口</t>
+          <t>鼓山區大順一路與富國路口</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H540" t="inlineStr"/>
@@ -14643,12 +14655,12 @@
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr">
         <is>
-          <t>鼓山區綠川街與綠川街29巷口</t>
+          <t>鼓山區馬卡道路與青海路口</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H541" t="inlineStr"/>
@@ -14666,12 +14678,12 @@
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr">
         <is>
-          <t>鼓山區美術館路與裕國街口</t>
+          <t>鼓山區興隆路與河川街103巷22弄路口</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H542" t="inlineStr"/>
@@ -14689,7 +14701,7 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
-          <t>鼓山區美術東四路與美術館路口</t>
+          <t>鼓山區興隆路與河川街103巷22弄路口</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -14712,7 +14724,7 @@
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
-          <t>鼓山區美術東四路與美術館路口</t>
+          <t>鼓山區綠川街與綠川街29巷口</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
@@ -14735,12 +14747,12 @@
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
-          <t>鼓山區厚生路往翠華路/河西一路路口</t>
+          <t>鼓山區美術館路與裕國街口</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>闖紅燈等各項違規</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H545" t="inlineStr"/>
@@ -14758,7 +14770,7 @@
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>鼓山區厚生路往翠華路/河西一路路口</t>
+          <t>鼓山區美術東四路與美術館路口</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -14781,12 +14793,12 @@
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr">
         <is>
-          <t>鼓山區美術館路與美術東二路口</t>
+          <t>鼓山區美術東四路與美術館路口</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H547" t="inlineStr"/>
@@ -14804,12 +14816,12 @@
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr">
         <is>
-          <t>左營區大順一路與龍德新路口</t>
+          <t>鼓山區厚生路往翠華路/河西一路路口</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H548" t="inlineStr"/>
@@ -14827,12 +14839,12 @@
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr">
         <is>
-          <t>三民區大順一路與河堤南路與河堤路口</t>
+          <t>鼓山區厚生路往翠華路/河西一路路口</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="H549" t="inlineStr"/>
@@ -14850,7 +14862,7 @@
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr">
         <is>
-          <t>三民區大順一路與河堤南路與河堤路口</t>
+          <t>鼓山區美術館路與美術東二路口</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -14873,7 +14885,7 @@
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr">
         <is>
-          <t>三民區大順三路與359巷/366巷口</t>
+          <t>左營區大順一路與龍德新路口</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
@@ -14896,7 +14908,7 @@
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr">
         <is>
-          <t>三民區大順三路與359巷/366巷口</t>
+          <t>三民區大順一路與河堤南路與河堤路口</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -14919,7 +14931,7 @@
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr">
         <is>
-          <t>三民區大順一路與聯興路口</t>
+          <t>三民區大順一路與河堤南路與河堤路口</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -14942,7 +14954,7 @@
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr">
         <is>
-          <t>三民區大順二路與日全街口</t>
+          <t>三民區大順三路與359巷/366巷口</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
@@ -14965,7 +14977,7 @@
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
-          <t>三民區大順二路與鼎山街口</t>
+          <t>三民區大順三路與359巷/366巷口</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -14988,7 +15000,7 @@
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
-          <t>三民區大順二路與莊敬路口</t>
+          <t>三民區大順一路與聯興路口</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -15011,7 +15023,7 @@
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
-          <t>三民區大順二路與灣中街口</t>
+          <t>三民區大順二路與日全街口</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
@@ -15034,7 +15046,7 @@
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
-          <t>三民區大順二路與建德路/大豐二路口</t>
+          <t>三民區大順二路與鼎山街口</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -15057,7 +15069,7 @@
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
-          <t>三民區大順二路與寶興路口</t>
+          <t>三民區大順二路與莊敬路口</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
@@ -15080,7 +15092,7 @@
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr">
         <is>
-          <t>三民區大順二路與建興路口</t>
+          <t>三民區大順二路與灣中街口</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -15103,7 +15115,7 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr">
         <is>
-          <t>三民區大順二路與覺民路口</t>
+          <t>三民區大順二路與建德路/大豐二路口</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -15126,7 +15138,7 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr">
         <is>
-          <t>三民區大順二路與大順二路55巷/46巷口</t>
+          <t>三民區大順二路與寶興路口</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -15149,7 +15161,7 @@
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr">
         <is>
-          <t>三民區大順二路與大順二路55巷/46巷口</t>
+          <t>三民區大順二路與建興路口</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -15172,12 +15184,12 @@
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>前鎮區一心一路與凱旋四路口</t>
+          <t>三民區大順二路與覺民路口</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H564" t="inlineStr"/>
@@ -15195,7 +15207,7 @@
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>前鎮區成功二路與時代大道口</t>
+          <t>三民區大順二路與大順二路55巷/46巷口</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -15218,7 +15230,7 @@
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與龍文街口</t>
+          <t>三民區大順二路與大順二路55巷/46巷口</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
@@ -15241,12 +15253,12 @@
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
-          <t>鼓山區美術館路與美術東四路口</t>
+          <t>前鎮區一心一路與凱旋四路口</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H567" t="inlineStr"/>
@@ -15264,12 +15276,12 @@
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr">
         <is>
-          <t>鼓山區中華一路與美術館路口</t>
+          <t>前鎮區成功二路與時代大道口</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H568" t="inlineStr"/>
@@ -15287,12 +15299,12 @@
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr">
         <is>
-          <t>鼓山區裕誠路與美術館路口</t>
+          <t>鼓山區大順一路與龍文街口</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H569" t="inlineStr"/>
@@ -15310,12 +15322,12 @@
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr">
         <is>
-          <t>鼓山區裕誠路與美術館路口</t>
+          <t>鼓山區美術館路與美術東四路口</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、違規左轉等各項違規</t>
         </is>
       </c>
       <c r="H570" t="inlineStr"/>
@@ -15333,12 +15345,12 @@
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與龍德路口</t>
+          <t>鼓山區中華一路與美術館路口</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H571" t="inlineStr"/>
@@ -15356,12 +15368,12 @@
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與南屏路口</t>
+          <t>鼓山區裕誠路與美術館路口</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H572" t="inlineStr"/>
@@ -15379,12 +15391,12 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr">
         <is>
-          <t>鼓山區大順一路與南屏路口</t>
+          <t>鼓山區裕誠路與美術館路口</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>闖紅燈、違規左轉等各項違規</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H573" t="inlineStr"/>
@@ -15402,7 +15414,7 @@
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr">
         <is>
-          <t>苓雅區凱旋二路與三多二路口</t>
+          <t>鼓山區大順一路與龍德路口</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -15412,6 +15424,75 @@
       </c>
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>鼓山區大順一路與南屏路口</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>闖紅燈、違規左轉等各項違規</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>鼓山區大順一路與南屏路口</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>闖紅燈、違規左轉等各項違規</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr"/>
+      <c r="I576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>苓雅區凱旋二路與三多二路口</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>闖紅燈、違規左轉等各項違規</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr"/>
+      <c r="I577" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
